--- a/xceed-digital/manifest.xlsx
+++ b/xceed-digital/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (2)\New folder (2)\xceed\xceed-digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E81C10-401B-4713-ADCD-F9063AC3F9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E797EA7-8EFB-41EA-99BC-8F217C6FCBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="143">
   <si>
     <t>Department</t>
   </si>
@@ -63,21 +63,9 @@
     <t>Finance &amp; Accounting</t>
   </si>
   <si>
-    <t>Budgeting &amp; Reporting</t>
-  </si>
-  <si>
-    <t>budget-vs-actual</t>
-  </si>
-  <si>
-    <t>Budget vs Actual Dashboard</t>
-  </si>
-  <si>
     <t>PowerBI</t>
   </si>
   <si>
-    <t>Budget vs actual across business units</t>
-  </si>
-  <si>
     <t>Executive / Management</t>
   </si>
   <si>
@@ -90,6 +78,9 @@
     <t>Company KPI Dashboard</t>
   </si>
   <si>
+    <t>https://app.powerbi.com/reportEmbed?reportId=4ce8262e-...</t>
+  </si>
+  <si>
     <t>Company-level KPIs</t>
   </si>
   <si>
@@ -105,40 +96,349 @@
     <t>URL</t>
   </si>
   <si>
-    <t>budget-source-2025</t>
-  </si>
-  <si>
-    <t>budget_vs_actual_source.xlsx</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
     <t>Local sample file</t>
   </si>
   <si>
-    <t>company-kpi-table1</t>
-  </si>
-  <si>
-    <t>Company KPI Table 1 (OneDrive)</t>
-  </si>
-  <si>
     <t>external</t>
   </si>
   <si>
-    <t>Main KPI metrics</t>
-  </si>
-  <si>
-    <t>company-kpi-table2</t>
-  </si>
-  <si>
-    <t>Company KPI Table 2 (OneDrive)</t>
-  </si>
-  <si>
-    <t>Supplementary KPIs</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/reportEmbed?reportId=4ce8262e-8c41-42bc-93ee-d80be922ad50&amp;autoAuth=true&amp;ctid=c1e2da04-87a7-4c79-90a9-0a2a54d6db05&amp;actionBarEnabled=true</t>
+    <t>Customer Service / Customer Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protection / Regulatory Reporting</t>
+  </si>
+  <si>
+    <t>Financial Complaints Monitoring Dashboard</t>
+  </si>
+  <si>
+    <t>Financial_Complaints_Monitoring_Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYzgwMmRmZTEtZWJiZi00NGIwLWE3YTUtNjJiMDFjZTg2NTU2IiwidCI6ImZmYzg3OTVlLTAxODUtNDg5Yi05ZGE2LTQ5MDI0MTJmMDNhMCIsImMiOjl9&amp;pageName=70faebe9d3ce003a7e21</t>
+  </si>
+  <si>
+    <t>IT / Technology</t>
+  </si>
+  <si>
+    <t>IT Support / Help Desk</t>
+  </si>
+  <si>
+    <t>IT Help Desk Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiY2RkODMyYWYtYzJkZC00YjQ4LThlNWItMzA4MWVjYzI5YmJiIiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Consumer Financial Complaints Analytics</t>
+  </si>
+  <si>
+    <t>Complaints Management</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOGM2OGFlN2YtZDY2MS00MDA3LTg3NjEtM2VmMjM5NWE4YzVlIiwidCI6IjkyNTcwMDE0LWZmM2QtNDAxMC04MTNkLTQxM2YwZmY5OWQ5MiJ9</t>
+  </si>
+  <si>
+    <t>Risk &amp; Compliance</t>
+  </si>
+  <si>
+    <t>ESG / Sustainability Risk</t>
+  </si>
+  <si>
+    <t>ESG Risk Landscape Analysis</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZTZlOWQ0OTktZWRjYi00Nzc4LTllZjYtOTdiOWU3NzQxYmYyIiwidCI6IjkyNTcwMDE0LWZmM2QtNDAxMC04MTNkLTQxM2YwZmY5OWQ5MiJ9</t>
+  </si>
+  <si>
+    <t>Credit Risk Management</t>
+  </si>
+  <si>
+    <t>Credit Risk Analysis</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOTc0MzM2YTUtNGZkYi00NWVhLWFiYTMtMjFmMDZhYTllYmNjIiwidCI6IjkyNTcwMDE0LWZmM2QtNDAxMC04MTNkLTQxM2YwZmY5OWQ5MiJ9</t>
+  </si>
+  <si>
+    <t>Human Resources (HR)</t>
+  </si>
+  <si>
+    <t>Workforce Analytics</t>
+  </si>
+  <si>
+    <t>HR Analytics Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZWZlODMwNGItZWE1Yi00YThkLWI2MTAtN2Q2ZThkZGU2YTQ4IiwidCI6ImE3NjhlZmQ4LTAxYzEtNDVmMC1hMzc2LWY1YjJiNjBlMzM2MiJ9&amp;pageName=4b6017c621d67ed4bce9</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Supply Chain &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Supply Chain Performance Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiN2ExM2VjZjItNWY4Mi00NTZkLWIzZmMtNGM3MDgxZjg5ZjUzIiwidCI6ImE3NjhlZmQ4LTAxYzEtNDVmMC1hMzc2LWY1YjJiNjBlMzM2MiJ9&amp;pageName=1673a0bd1995bd071d01</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Retail Analytics</t>
+  </si>
+  <si>
+    <t>Retail Sales Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNjkxMzcxMjgtNzJmOC00OGRiLThhODAtNDZkODMyMWMyN2VlIiwidCI6IjA0ZWM2MTA5LTRjNzktNGM3My1hZTcxLWE0NzRjMDlhMWY1YSJ9</t>
+  </si>
+  <si>
+    <t>Supply chain Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOTgxOGNlYmYtMGVhNy00NWNhLTg0YWEtMzhiZjhlZTM1YWNmIiwidCI6ImE3NjhlZmQ4LTAxYzEtNDVmMC1hMzc2LWY1YjJiNjBlMzM2MiJ9</t>
+  </si>
+  <si>
+    <t>Financial Reporting</t>
+  </si>
+  <si>
+    <t>Finance Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOGJmMGNiOTctMzViZC00YTMxLTgxZmQtNmMwNDk1MDM4YTE0IiwidCI6ImE3NjhlZmQ4LTAxYzEtNDVmMC1hMzc2LWY1YjJiNjBlMzM2MiJ9&amp;pageName=b5d12af160384203048c</t>
+  </si>
+  <si>
+    <t>Performance Dashboard - Sales Agent</t>
+  </si>
+  <si>
+    <t>Sales Performance</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMjYzYThhYjAtZDcxNi00MzMzLThmMzItODc3YzAzNDE0MjYwIiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Project Management / PMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project Management Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMWVhZjA4ZjctOWY1My00ODI2LTk0NzEtZDYzMGMyZmRiOTY3IiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Out-of-Stock Report Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZTcxMTBhYTktNTAwYy00OGU3LWI0Y2MtMDExZTJkZDBiMzQzIiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>Credit_Risk_Analysis</t>
+  </si>
+  <si>
+    <t>Finance_Dashboard</t>
+  </si>
+  <si>
+    <t>Consumer_Financial_Complaints_Analytics</t>
+  </si>
+  <si>
+    <t>IT_Help_Desk_Dashboard</t>
+  </si>
+  <si>
+    <t>ESG_Risk_Landscape_Analysis</t>
+  </si>
+  <si>
+    <t>HR_Analytics_Dashboard</t>
+  </si>
+  <si>
+    <t>Out-of-Stock_Report_Dashboard</t>
+  </si>
+  <si>
+    <t>Supply_Chain_Performance_Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project_Management_Dashboard</t>
+  </si>
+  <si>
+    <t>Supply_chain_Dashboard</t>
+  </si>
+  <si>
+    <t>Retail_Sales_Dashboard</t>
+  </si>
+  <si>
+    <t>Performance_Dashboard-Sales_Agent</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis</t>
+  </si>
+  <si>
+    <t>2-Finance_Dashboard</t>
+  </si>
+  <si>
+    <t>3-company-kpi</t>
+  </si>
+  <si>
+    <t>4-Financial_Complaints_Monitoring_Dashboard</t>
+  </si>
+  <si>
+    <t>5-Consumer_Financial_Complaints_Analytics</t>
+  </si>
+  <si>
+    <t>6-IT_Help_Desk_Dashboard</t>
+  </si>
+  <si>
+    <t>7-ESG_Risk_Landscape_Analysis</t>
+  </si>
+  <si>
+    <t>8-HR_Analytics_Dashboard</t>
+  </si>
+  <si>
+    <t>9-Out-of-Stock_Report_Dashboard</t>
+  </si>
+  <si>
+    <t>10-Supply_Chain_Performance_Dashboard</t>
+  </si>
+  <si>
+    <t>11- Project_Management_Dashboard</t>
+  </si>
+  <si>
+    <t>12-Supply_chain_Dashboard</t>
+  </si>
+  <si>
+    <t>13-Retail_Sales_Dashboard</t>
+  </si>
+  <si>
+    <t>14-Performance_Dashboard-Sales_Agent</t>
+  </si>
+  <si>
+    <t>15-Credit_Risk_Analysis</t>
+  </si>
+  <si>
+    <t>16-Finance_Dashboard</t>
+  </si>
+  <si>
+    <t>17-company-kpi</t>
+  </si>
+  <si>
+    <t>18-Financial_Complaints_Monitoring_Dashboard</t>
+  </si>
+  <si>
+    <t>19-Consumer_Financial_Complaints_Analytics</t>
+  </si>
+  <si>
+    <t>20-IT_Help_Desk_Dashboard</t>
+  </si>
+  <si>
+    <t>21-ESG_Risk_Landscape_Analysis</t>
+  </si>
+  <si>
+    <t>22-HR_Analytics_Dashboard</t>
+  </si>
+  <si>
+    <t>23-Out-of-Stock_Report_Dashboard</t>
+  </si>
+  <si>
+    <t>24-Supply_Chain_Performance_Dashboard</t>
+  </si>
+  <si>
+    <t>25- Project_Management_Dashboard</t>
+  </si>
+  <si>
+    <t>26-Supply_chain_Dashboard</t>
+  </si>
+  <si>
+    <t>27-Retail_Sales_Dashboard</t>
+  </si>
+  <si>
+    <t>28-Performance_Dashboard-Sales_Agent</t>
+  </si>
+  <si>
+    <t>29-Credit_Risk_Analysis</t>
+  </si>
+  <si>
+    <t>30-Finance_Dashboard</t>
+  </si>
+  <si>
+    <t>31-company-kpi</t>
+  </si>
+  <si>
+    <t>32-Financial_Complaints_Monitoring_Dashboard</t>
+  </si>
+  <si>
+    <t>33-Consumer_Financial_Complaints_Analytics</t>
+  </si>
+  <si>
+    <t>34-IT_Help_Desk_Dashboard</t>
+  </si>
+  <si>
+    <t>35-ESG_Risk_Landscape_Analysis</t>
+  </si>
+  <si>
+    <t>36-HR_Analytics_Dashboard</t>
+  </si>
+  <si>
+    <t>37-Out-of-Stock_Report_Dashboard</t>
+  </si>
+  <si>
+    <t>38-Supply_Chain_Performance_Dashboard</t>
+  </si>
+  <si>
+    <t>39- Project_Management_Dashboard</t>
+  </si>
+  <si>
+    <t>40-Supply_chain_Dashboard</t>
+  </si>
+  <si>
+    <t>41-Retail_Sales_Dashboard</t>
+  </si>
+  <si>
+    <t>42-Performance_Dashboard-Sales_Agent</t>
+  </si>
+  <si>
+    <t>43-Credit_Risk_Analysis</t>
+  </si>
+  <si>
+    <t>44-Finance_Dashboard</t>
+  </si>
+  <si>
+    <t>45-company-kpi</t>
+  </si>
+  <si>
+    <t>46-Financial_Complaints_Monitoring_Dashboard</t>
+  </si>
+  <si>
+    <t>47-Consumer_Financial_Complaints_Analytics</t>
+  </si>
+  <si>
+    <t>48-IT_Help_Desk_Dashboard</t>
+  </si>
+  <si>
+    <t>49-ESG_Risk_Landscape_Analysis</t>
+  </si>
+  <si>
+    <t>50-HR_Analytics_Dashboard</t>
+  </si>
+  <si>
+    <t>51-Out-of-Stock_Report_Dashboard</t>
+  </si>
+  <si>
+    <t>52-Supply_Chain_Performance_Dashboard</t>
+  </si>
+  <si>
+    <t>53- Project_Management_Dashboard</t>
+  </si>
+  <si>
+    <t>54-Supply_chain_Dashboard</t>
+  </si>
+  <si>
+    <t>55-Retail_Sales_Dashboard</t>
+  </si>
+  <si>
+    <t>56-Performance_Dashboard-Sales_Agent</t>
   </si>
   <si>
     <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx0</t>
@@ -147,44 +447,32 @@
     <t>https://1drv.ms/x/c/bccc85efa2bda0a5/EVr_KhVRaOJAs0kmNvI3OI8BM_B1lL-LJiqx6XMAgVRbcA</t>
   </si>
   <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>AP-Aging-Dashboard</t>
-  </si>
-  <si>
-    <t>AP Aging Dashboard</t>
-  </si>
-  <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>AR Aging Dashboard</t>
-  </si>
-  <si>
-    <t>AR-Aging -ashboard</t>
-  </si>
-  <si>
-    <t>Risk &amp; Governance</t>
-  </si>
-  <si>
-    <t>Risk-Compliance-Dashboard</t>
-  </si>
-  <si>
-    <t>Risk &amp; Compliance Dashboard</t>
-  </si>
-  <si>
-    <t>AP-Aging-Dashboard-table1</t>
-  </si>
-  <si>
-    <t>AR-Aging -ashboard-table2</t>
+    <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx1</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx2</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx3</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx4</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx5</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx6</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +492,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,6 +535,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,21 +871,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F6EA8A-FFED-44AA-A31C-FDD9C03D0BB1}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="68.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -616,143 +911,368 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{7C7472DF-F18D-4C8B-9448-0D8D1F0F109C}"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://app.powerbi.com/reportEmbed?reportId=4ce8262e-" xr:uid="{C5878921-3E2D-4B1A-8D52-70F9D0972C8D}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{B852718E-1B67-48AA-9A50-B50B01F566EB}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{71CE86CA-299D-4516-AA19-E663A74B84B7}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{25BE4346-930B-426E-BDBA-F49734864736}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{380DB2CB-D146-42B4-BE60-23E28833D1D2}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{27A9060F-9409-4309-9407-7C3625C6F97E}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{688F46A8-9CBE-438B-BE45-DFAF7BC893DA}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{01022610-02D6-478A-96F6-8444E21F14FB}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{D7F3502E-0681-4608-A296-3600F7A8C34E}"/>
+    <hyperlink ref="F3" r:id="rId11" xr:uid="{4B54502E-2744-4F89-9C58-77CD41424D57}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{F430FF02-2F11-4B0B-A6E6-8CB55A42BAB9}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{03904DCA-4728-4185-B374-8CB9069574DD}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{EF59B15F-ECC2-4E2D-8ACA-FE4695E24CF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD5B553-AE00-4C5B-9047-BFCA8F205EB5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,162 +1280,1143 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xceed-digital/manifest.xlsx
+++ b/xceed-digital/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (2)\New folder (2)\xceed\xceed-digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E797EA7-8EFB-41EA-99BC-8F217C6FCBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F01035-7CEE-4012-B256-7C05197B25C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="166">
   <si>
     <t>Department</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Performance_Dashboard-Sales_Agent</t>
   </si>
   <si>
-    <t>1-Credit_Risk_Analysis</t>
-  </si>
-  <si>
     <t>2-Finance_Dashboard</t>
   </si>
   <si>
@@ -466,6 +463,78 @@
   </si>
   <si>
     <t>https://1drv.ms/x/c/2c9d502198273e67/IQSzi1f4O8g1T7qv3t__mmU8AdFXax9HDcVFpTzlONu0Kx7</t>
+  </si>
+  <si>
+    <t>RelativePath</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis1</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis2</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis3</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis4</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis5</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis6</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis7</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis8</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis9</t>
+  </si>
+  <si>
+    <t>1-Credit_Risk_Analysis10</t>
+  </si>
+  <si>
+    <t>2025/Folder A/A</t>
+  </si>
+  <si>
+    <t>2025/Folder A/B</t>
+  </si>
+  <si>
+    <t>2025/Folder A/B/AB</t>
+  </si>
+  <si>
+    <t>2026/Folder B/A</t>
+  </si>
+  <si>
+    <t>2026/Folder B/A/test</t>
+  </si>
+  <si>
+    <t>2026/Folder B/A/test2</t>
+  </si>
+  <si>
+    <t>2026/Folder B1</t>
+  </si>
+  <si>
+    <t>2026/Folder B2</t>
+  </si>
+  <si>
+    <t>2026/Folder B3</t>
+  </si>
+  <si>
+    <t>2026/Folder B4</t>
+  </si>
+  <si>
+    <t>2026/Folder B5</t>
+  </si>
+  <si>
+    <t>2026/Folder B6</t>
+  </si>
+  <si>
+    <t>2026/Folder B7</t>
   </si>
 </sst>
 </file>
@@ -873,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F6EA8A-FFED-44AA-A31C-FDD9C03D0BB1}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1256,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD5B553-AE00-4C5B-9047-BFCA8F205EB5}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,14 +1337,14 @@
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="48.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1292,1126 +1361,1504 @@
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
+        <v>154</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
+        <v>155</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
+        <v>154</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7">
+        <v>2026</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
+      <c r="E8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
+      <c r="E11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>136</v>
+      <c r="E12" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
+        <v>153</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>135</v>
+      <c r="E14" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>137</v>
+      <c r="E16" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>154</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>138</v>
+      <c r="E23" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>73</v>
+        <v>154</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>135</v>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>74</v>
+        <v>155</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>138</v>
+      <c r="E26" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>75</v>
+        <v>154</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>135</v>
+      <c r="E28" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>139</v>
+      <c r="E30" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>153</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>135</v>
+      <c r="E32" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>139</v>
+      <c r="E33" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>140</v>
+      <c r="E37" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>73</v>
+        <v>153</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>135</v>
+      <c r="E39" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>74</v>
+        <v>153</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>140</v>
+      <c r="E40" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>75</v>
+        <v>154</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>135</v>
+      <c r="E42" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
+      </c>
+      <c r="F43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>141</v>
+      <c r="E44" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>153</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>135</v>
+      <c r="E46" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>141</v>
+      <c r="E47" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>135</v>
+      <c r="E49" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>73</v>
+        <v>153</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>135</v>
+      <c r="E53" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>74</v>
+        <v>153</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>142</v>
+      <c r="E54" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>75</v>
+        <v>153</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>135</v>
+      <c r="E56" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>77</v>
       </c>
-      <c r="B57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/xceed-digital/manifest.xlsx
+++ b/xceed-digital/manifest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (2)\New folder (2)\xceed\xceed-digital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (2)\New folder (3)\xceed\xceed-digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F01035-7CEE-4012-B256-7C05197B25C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85D194-AE46-499E-A3D6-DA295C9E7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="170">
   <si>
     <t>Department</t>
   </si>
@@ -105,9 +105,6 @@
     <t>external</t>
   </si>
   <si>
-    <t>Customer Service / Customer Experience</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Protection / Regulatory Reporting</t>
   </si>
   <si>
@@ -535,6 +532,21 @@
   </si>
   <si>
     <t>2026/Folder B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Service </t>
+  </si>
+  <si>
+    <t>Inventory Optimization Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYTk2OTcyMWQtOGNmNC00NGJiLThjODMtMGFkN2JjNzJkYzBhIiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>HR Retention &amp; Engagement Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYjNlN2QwZGUtM2JlNS00OWQzLWIxZmUtOTZhM2ZhMTQyNTBkIiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
   </si>
 </sst>
 </file>
@@ -572,12 +584,78 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -593,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -605,6 +683,65 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -940,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F6EA8A-FFED-44AA-A31C-FDD9C03D0BB1}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +1090,7 @@
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -980,344 +1117,1062 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B48" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F48" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E74" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F74" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B75" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{7C7472DF-F18D-4C8B-9448-0D8D1F0F109C}"/>
-    <hyperlink ref="F4" r:id="rId2" display="https://app.powerbi.com/reportEmbed?reportId=4ce8262e-" xr:uid="{C5878921-3E2D-4B1A-8D52-70F9D0972C8D}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{B852718E-1B67-48AA-9A50-B50B01F566EB}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{71CE86CA-299D-4516-AA19-E663A74B84B7}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{25BE4346-930B-426E-BDBA-F49734864736}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{380DB2CB-D146-42B4-BE60-23E28833D1D2}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{27A9060F-9409-4309-9407-7C3625C6F97E}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{688F46A8-9CBE-438B-BE45-DFAF7BC893DA}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{01022610-02D6-478A-96F6-8444E21F14FB}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{D7F3502E-0681-4608-A296-3600F7A8C34E}"/>
-    <hyperlink ref="F3" r:id="rId11" xr:uid="{4B54502E-2744-4F89-9C58-77CD41424D57}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{F430FF02-2F11-4B0B-A6E6-8CB55A42BAB9}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{03904DCA-4728-4185-B374-8CB9069574DD}"/>
-    <hyperlink ref="F10" r:id="rId14" xr:uid="{EF59B15F-ECC2-4E2D-8ACA-FE4695E24CF7}"/>
+    <hyperlink ref="F15" r:id="rId2" display="https://app.powerbi.com/reportEmbed?reportId=4ce8262e-" xr:uid="{C5878921-3E2D-4B1A-8D52-70F9D0972C8D}"/>
+    <hyperlink ref="F21" r:id="rId3" xr:uid="{B852718E-1B67-48AA-9A50-B50B01F566EB}"/>
+    <hyperlink ref="F34" r:id="rId4" xr:uid="{71CE86CA-299D-4516-AA19-E663A74B84B7}"/>
+    <hyperlink ref="F27" r:id="rId5" xr:uid="{25BE4346-930B-426E-BDBA-F49734864736}"/>
+    <hyperlink ref="F41" r:id="rId6" xr:uid="{380DB2CB-D146-42B4-BE60-23E28833D1D2}"/>
+    <hyperlink ref="F48" r:id="rId7" xr:uid="{27A9060F-9409-4309-9407-7C3625C6F97E}"/>
+    <hyperlink ref="F56" r:id="rId8" xr:uid="{688F46A8-9CBE-438B-BE45-DFAF7BC893DA}"/>
+    <hyperlink ref="F68" r:id="rId9" xr:uid="{01022610-02D6-478A-96F6-8444E21F14FB}"/>
+    <hyperlink ref="F57" r:id="rId10" xr:uid="{D7F3502E-0681-4608-A296-3600F7A8C34E}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{4B54502E-2744-4F89-9C58-77CD41424D57}"/>
+    <hyperlink ref="F74" r:id="rId12" xr:uid="{F430FF02-2F11-4B0B-A6E6-8CB55A42BAB9}"/>
+    <hyperlink ref="F62" r:id="rId13" xr:uid="{03904DCA-4728-4185-B374-8CB9069574DD}"/>
+    <hyperlink ref="F55" r:id="rId14" xr:uid="{EF59B15F-ECC2-4E2D-8ACA-FE4695E24CF7}"/>
+    <hyperlink ref="F58" r:id="rId15" xr:uid="{2748B9CD-7550-4A3D-A01C-0B4D1D5B3D99}"/>
+    <hyperlink ref="F49" r:id="rId16" xr:uid="{AF586387-8C66-472B-AE58-B59AAD66A173}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1327,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD5B553-AE00-4C5B-9047-BFCA8F205EB5}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -1361,7 +2216,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1369,22 +2224,22 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
@@ -1392,22 +2247,22 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
@@ -1415,22 +2270,22 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>20</v>
@@ -1438,22 +2293,22 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>20</v>
@@ -1461,22 +2316,22 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
@@ -1484,19 +2339,19 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7">
         <v>2026</v>
@@ -1507,22 +2362,22 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
@@ -1530,22 +2385,22 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>20</v>
@@ -1553,22 +2408,22 @@
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>20</v>
@@ -1576,22 +2431,22 @@
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -1599,22 +2454,22 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>20</v>
@@ -1625,19 +2480,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>
@@ -1645,22 +2500,22 @@
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
@@ -1668,22 +2523,22 @@
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>20</v>
@@ -1691,22 +2546,22 @@
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>20</v>
@@ -1714,22 +2569,22 @@
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>20</v>
@@ -1737,22 +2592,22 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>20</v>
@@ -1760,22 +2615,22 @@
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>20</v>
@@ -1783,22 +2638,22 @@
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>20</v>
@@ -1806,22 +2661,22 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>20</v>
@@ -1829,22 +2684,22 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>20</v>
@@ -1852,22 +2707,22 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>20</v>
@@ -1875,22 +2730,22 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>20</v>
@@ -1898,22 +2753,22 @@
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>20</v>
@@ -1921,22 +2776,22 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>20</v>
@@ -1947,19 +2802,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>20</v>
@@ -1967,22 +2822,22 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>20</v>
@@ -1990,22 +2845,22 @@
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>20</v>
@@ -2013,22 +2868,22 @@
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>20</v>
@@ -2036,22 +2891,22 @@
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>20</v>
@@ -2059,22 +2914,22 @@
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>20</v>
@@ -2082,22 +2937,22 @@
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>20</v>
@@ -2105,22 +2960,22 @@
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>20</v>
@@ -2128,22 +2983,22 @@
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>20</v>
@@ -2151,22 +3006,22 @@
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>20</v>
@@ -2174,22 +3029,22 @@
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>20</v>
@@ -2197,22 +3052,22 @@
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>20</v>
@@ -2220,22 +3075,22 @@
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>20</v>
@@ -2243,22 +3098,22 @@
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>20</v>
@@ -2269,19 +3124,19 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>20</v>
@@ -2289,22 +3144,22 @@
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>20</v>
@@ -2312,22 +3167,22 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>20</v>
@@ -2335,22 +3190,22 @@
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>20</v>
@@ -2358,22 +3213,22 @@
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>20</v>
@@ -2381,22 +3236,22 @@
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>20</v>
@@ -2404,22 +3259,22 @@
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>20</v>
@@ -2427,22 +3282,22 @@
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>20</v>
@@ -2450,22 +3305,22 @@
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>20</v>
@@ -2473,22 +3328,22 @@
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>20</v>
@@ -2496,22 +3351,22 @@
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>20</v>
@@ -2519,22 +3374,22 @@
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>20</v>
@@ -2542,22 +3397,22 @@
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>20</v>
@@ -2565,22 +3420,22 @@
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>20</v>
@@ -2591,19 +3446,19 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>20</v>
@@ -2611,22 +3466,22 @@
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>20</v>
@@ -2634,22 +3489,22 @@
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>20</v>
@@ -2657,22 +3512,22 @@
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>20</v>
@@ -2680,22 +3535,22 @@
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>20</v>
@@ -2703,22 +3558,22 @@
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>20</v>
@@ -2726,22 +3581,22 @@
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>20</v>
@@ -2749,22 +3604,22 @@
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>20</v>
@@ -2772,22 +3627,22 @@
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>20</v>
@@ -2795,22 +3650,22 @@
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>20</v>
@@ -2818,22 +3673,22 @@
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -2841,22 +3696,22 @@
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>20</v>

--- a/xceed-digital/manifest.xlsx
+++ b/xceed-digital/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (2)\New folder (3)\xceed\xceed-digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85D194-AE46-499E-A3D6-DA295C9E7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3E6D1-EC49-4966-9A77-C0C312F5EB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="290">
   <si>
     <t>Department</t>
   </si>
@@ -547,6 +547,366 @@
   </si>
   <si>
     <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYjNlN2QwZGUtM2JlNS00OWQzLWIxZmUtOTZhM2ZhMTQyNTBkIiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>Campaign Performance</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Pre and Post Marketing Campaign Insights Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMWM3ODJlODUtN2MyZC00ZmNlLWJjZTktZjRmZWVhMGJlZDRkIiwidCI6IjkwZTJhYjlkLWYzY2ItNDZjMS05YWFiLWM5YTY1YmQ0ZTEzOSIsImMiOjJ9</t>
+  </si>
+  <si>
+    <t>Inventory Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>Attrition Rate Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMWM4YjliNzktNzM1NC00MDdmLTljZTAtZjg5M2U5ZmUwMmI5IiwidCI6ImRmODY3OWNkLWE4MGUtNDVkOC05OWFjLWM4M2VkN2ZmOTVhMCJ9</t>
+  </si>
+  <si>
+    <t>Business Performance Dashboard – Sales &amp; Orders</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNjIxYmYzODUtZTkzZi00YTJlLWFhM2QtZDhhMjZmNjk1ZmI1IiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Business Performance &amp; Strategy</t>
+  </si>
+  <si>
+    <t>Business Performance Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYTUzNTMyNWQtMWQ0Ni00OWIzLWFjNTItNjQ3NTA0YTZjMGZlIiwidCI6Ijk3ZjNiYjkxLTE2NWMtNGNhMi1iNDEyLWQxNjQ4MDMwYmI3ZiJ9</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Receivable Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMmM2OWQ3ZWItZDBmNS00ZjUyLTk2NTMtOTZhNGQwM2Y1ZjhkIiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Sales &amp; Inventory Performance</t>
+  </si>
+  <si>
+    <t>Sales &amp; Inventory KPI Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOGJkNzJjZTYtMmFkMy00Y2NlLTlhNzAtYzY2NDE1MzEwYzAxIiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>Financial Performance</t>
+  </si>
+  <si>
+    <t>Executive Financial Performance Management Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNzUxMTFkYTYtZWUyZC00YzczLWE0ODEtM2QwZjc3OTI1NmFlIiwidCI6IjI3ODBjOTU4LTc3ODAtNDdjYy1hNmQyLTQ5ZmQ0ZTQ1ODZmMSJ9</t>
+  </si>
+  <si>
+    <t>Inventory &amp; Warehouse Management</t>
+  </si>
+  <si>
+    <t>Internal Stock Control &amp; Consumption Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZjY5YzQ3YjQtZGQ5Yi00Mjk1LWE2ZDEtNmU4MjczNmNiMmJlIiwidCI6ImQ5ZDE4ZGQzLWQwMTItNGFjNS04NWViLTM2Yzc5MzZkOWRlMCJ9</t>
+  </si>
+  <si>
+    <t>Performance Comparison Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNTNkMWIzNjktZDE2ZS00Yjg0LWI1ZWMtZDQwNzAzYTE4YWExIiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Sales and Shipping Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMzhkNDExYzMtN2QxZS00YmM5LTg0Y2UtZDk0ZWUzYTBlNWQ1IiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Sales Performance Dashboard – Executive Decision Makers</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNzNmYzc4ODAtYzA2Yy00NDRiLTk4Y2EtZjdkMThmOTdiMTNjIiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Executive Dashboard – Decision Makers</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNjExMDhkYzgtNzFjZC00NWVjLThlZTktYjRiZDhmNzRlNDY2IiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Procurement Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiM2Q5YTMwNjEtZDAyOS00YTMyLTk3NDgtZDEyNmFlYTdlZjE2IiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Revenue &amp; Profitability Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYzlhMDM5ODctNDIyMS00ODNkLWE5NjgtNGVkYjA3MzFjYmE0IiwidCI6ImQ4ZTFiMDVlLTcwYWEtNGVmNy1iODc4LTQ2NmI2ODhmOTUyZiJ9</t>
+  </si>
+  <si>
+    <t>Supply Chain Analytics Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMjc1ZGU5NmEtYWZiYi00MDU3LTk4NWMtM2M5ZGJkOTkxY2YzIiwidCI6IjlmODRlZTRiLWJlZTMtNDJmNy1iODRjLWU1N2U1ZTkyZjEwNSJ9</t>
+  </si>
+  <si>
+    <t>Project Management Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiY2MyZTRlZjgtMWM1MC00NWY0LWFlNmQtZWZiNDQ4OGZjNGQ0IiwidCI6IjBlMGNiMDYwLTA5YWQtNDlmNS1hMDA1LTY4YjliNDlhYTFmNiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Retail Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYmNiYzhlZTAtYjY4Yy00ODMzLTg0ZDctMWY0ZTdjNjFiZGVhIiwidCI6ImIwZmUxZWI5LTJhZjQtNDNjNi1hMjQ1LWI2MzMwMTY5OGJmZiJ9</t>
+  </si>
+  <si>
+    <t>Financial Performance Dashboard – Advanced Analytics</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZTFhOWRlMmYtMjljOC00OWZhLWEzM2EtMDNkY2RiZTMzNmM4IiwidCI6ImZiZTRkNDZmLThhYjYtNDBjNS1iMjg4LWRiMDVkYzZhMmI1MCIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>Logistics Tracker Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYzU0ODI4NWMtY2I3MS00NjM4LTljNWQtNWNkMTMxOGI0ZjI0IiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>Logistics Support Ticket Overview Dashboard</t>
+  </si>
+  <si>
+    <t>Support Operations</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZDExZTM1N2YtNGZhYS00ZTM4LWE1ZWItZmY4ODkwZDZiNGUzIiwidCI6IjQ5MzkwMzQ4LTk2ZGMtNDZhZC05YTYyLWMxMDQzMDIwZmQ2MyJ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive KPI Dashboard - Profitability </t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMTNkOTBhYWEtYTM3Mi00Y2U4LTliNjQtOTBkZTFlM2Y2MWQ0IiwidCI6Ijk2ZGYwNGQ2LTA0YWUtNDI1OC1iYTJkLTkwYjJjMDZiMDA0ZiIsImMiOjJ9</t>
+  </si>
+  <si>
+    <t>Compensation &amp; Workforce Insights</t>
+  </si>
+  <si>
+    <t>Salaries in Tech Industry Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNWUzN2Q1YTItZmVmNy00ODM1LTg5YjUtMWE5YzM2ZjUwNDg5IiwidCI6IjEyMDFlNjcwLTI4YjQtNDg1ZC05OTNhLWIxYzU0OGRhMmZhYiJ9</t>
+  </si>
+  <si>
+    <t>Business Performance</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYTBkODhlMTUtMGY1ZS00ZGUyLThkMjMtYTE2YmY4NjEyOWE5IiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>Talent Acquisition</t>
+  </si>
+  <si>
+    <t>Recruitment Analytics Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZGNiYWNjODctZjM5My00NjMzLTllZjItZGM2NWM4YzM1OTc3IiwidCI6IjQ5MzkwMzQ4LTk2ZGMtNDZhZC05YTYyLWMxMDQzMDIwZmQ2MyJ9</t>
+  </si>
+  <si>
+    <t>Earned Value Management (EVM) Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZGUzYmVmMmUtOWJjZS00NzM5LWE3ZjUtZDNkZWNjN2EzY2M0IiwidCI6IjlkMjg5NTI5LTJmMjItNGQ1ZC04MzU4LTRlYjFkNGVmYjRiMCJ9</t>
+  </si>
+  <si>
+    <t>Business Insights Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiODdiYzE5ZWQtYzAyNy00ZWI3LTkxMjQtYjJjMTJiMjBjNWVjIiwidCI6IjA0ZWM2MTA5LTRjNzktNGM3My1hZTcxLWE0NzRjMDlhMWY1YSJ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRM Sales Management &amp; Revenue Growth Dashboard</t>
+  </si>
+  <si>
+    <t>Customer Relationship Management (CRM)</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYTU5ODg2ZDEtMThlYS00YTg3LWI0MzMtOWFkNTI3YTEzNDVjIiwidCI6ImZjNTIzNTI4LTNkMzgtNGNhMy05NGRkLTU5NjIzMDJkMzBlOCJ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing Campaign Dashboard </t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNGI5NmI4MzYtNDFmNy00N2RlLTk4N2UtMjlhYTg1Mjk2MzhhIiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYTczMjdlNTQtZjM0OS00Y2M3LWJmYzMtMTYxNWQ3MWRiMmMxIiwidCI6ImE5NDUyNTg2LTJmNGMtNGNiMS04ZDJlLTI2ODkyODllZTcyNiIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>Profit &amp; Loss (P&amp;L) Statement Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOGY0YzJlMzktNjM5Mi00ZjVhLWJhNGYtODc0ZGM4OTRlMDViIiwidCI6ImRiNGRmYTQ0LTJhY2YtNGJlZC05ZWQwLTllMjkwYzJlYWRkYyIsImMiOjl9</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZWQzYmIyNmQtZmFkNy00Njc3LThkNjktODQyYWEwODhmY2EyIiwidCI6ImZlODJhNjdjLWZhYTctNGQ5YS1iYmZhLTdkMjViNzA0N2I0MSIsImMiOjN9</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYWUzNGRkZjktMWVmOS00NWYxLTg4MjQtZGE0YTZlMjMwNjlhIiwidCI6IjA2ZjY4MmU3LWFkOGMtNDQ4ZS05MzhhLTg1MmY4MTY1NzVmZiIsImMiOjJ9&amp;embedImagePlaceholder=true</t>
+  </si>
+  <si>
+    <t>Product Performance Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYjczZjc5Y2ItYWY0ZC00NzY0LWI2OTgtYThhYWE3ZjUyODMwIiwidCI6IjA0ZWM2MTA5LTRjNzktNGM3My1hZTcxLWE0NzRjMDlhMWY1YSJ9&amp;pageName=9087c595fcdf6b6e09d7</t>
+  </si>
+  <si>
+    <t>Data Analytics &amp; User Insights</t>
+  </si>
+  <si>
+    <t>User Activity Analytics Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiM2VhOTY3NWYtNWJkOS00MTI4LTliNjktOTllYTE1NTE4NjQ4IiwidCI6IjA0ZWM2MTA5LTRjNzktNGM3My1hZTcxLWE0NzRjMDlhMWY1YSJ9&amp;pageName=ReportSection05ffb1ab94b7f071e6b6</t>
+  </si>
+  <si>
+    <t>New Market Supermarket Sales Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOWFlNjgyYTAtNjIyZi00YWY5LTgxMTAtMzYxYmMyYTkzNGJjIiwidCI6ImRmODY3OWNkLWE4MGUtNDVkOC05OWFjLWM4M2VkN2ZmOTVhMCJ9</t>
+  </si>
+  <si>
+    <t>Executive Commentary Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMWRkYTc5YzgtYzk5OS00OWU3LWFhZWItMjQ3Y2M3MTVhYWI2IiwidCI6ImY0ZDkxZGM1LWY0MzQtNDBkOC1iZjRhLWYwNTEzZTc0ZWE1NSIsImMiOjN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Business Overview Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNzMzNGJiM2ItNzk0MS00NWZjLTg1YTYtNThlMjBjZWFmNDcwIiwidCI6Ijc4ZTU2OWJmLWVhOGItNDQyNy1hNzU1LWYwNTg5NWFjYzU0YiIsImMiOjZ9</t>
+  </si>
+  <si>
+    <t>Sales Pipeline from CRM Data Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYWJmNDMyOTktY2FlNS00YTI1LWJlYTMtMTZhODI0MTRjOGUxIiwidCI6IjY4ZDQ1MzNjLWVhZTYtNDgzMy05OWNjLTdhOTcwNGFjODcwYiIsImMiOjZ9</t>
+  </si>
+  <si>
+    <t>CRM Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiNzU3MjUxMzYtYmZiYS00OGU3LTg2YmItYWYyMWJhNTI1N2FlIiwidCI6ImRmODY3OWNkLWE4MGUtNDVkOC05OWFjLWM4M2VkN2ZmOTVhMCJ9</t>
+  </si>
+  <si>
+    <t>Sales Performance Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMmZlNzQ3ZTQtN2FjMi00NmE1LThiZjgtMWJlZTI2ZWJjOTkyIiwidCI6IjQ0ODI2YzYyLTA3MWEtNDY0YS05ZjA2LTk5ZmFlN2IwZDY2ZiIsImMiOjEwfQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Financial Performance Overview Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMWExMmIwYzctMWM2ZC00ZjU0LWI2ZGItNWIwMzAxOTJmOTNiIiwidCI6ImRmODY3OWNkLWE4MGUtNDVkOC05OWFjLWM4M2VkN2ZmOTVhMCJ9</t>
+  </si>
+  <si>
+    <t>Financial Customer Complaints Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZWEyN2UwMTQtMDVlMC00Yzk4LWI5ZWUtNmVlZWJiOWRhNDgyIiwidCI6ImFlNmU5ZGFmLWNlMjMtNDc2MC1hNDU5LWIwYzAzNDEyM2NmZCJ9</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYTc2ZWI4YjAtNTY3NS00NTE5LThhMzYtODIyNDY1MjMxOTUyIiwidCI6IjkxMTA0MDg5LWIzZWUtNGE0Mi1iM2IyLTY5YzdmMjMwNzFmYyJ9</t>
+  </si>
+  <si>
+    <t>HR Recruitment Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOTczN2U1NDktOGQ5YS00ODUyLTgyMDMtZmM1ZWM5ZWJmZWVhIiwidCI6IjkxMTA0MDg5LWIzZWUtNGE0Mi1iM2IyLTY5YzdmMjMwNzFmYyJ9</t>
+  </si>
+  <si>
+    <t>Sales CRM Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYjI4N2U3YTktY2I1Yy00ZGNkLWJhNGItMjc0NjVhZTM4MDVhIiwidCI6IjkxMTA0MDg5LWIzZWUtNGE0Mi1iM2IyLTY5YzdmMjMwNzFmYyJ9</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiMzc3NjkzOTQtMzU1Ny00OTE3LTgwMDQtYjZhMmMwN2NkMDBiIiwidCI6ImI2NDE3Y2QwLTFmNzMtNDQ3MS05YTM5LTIwOTUzODIyYTM0YSIsImMiOjN9&amp;embedImagePlaceholder=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marketing Sentiment Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>Consumer Insights &amp; Engagement</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiODVjZThlY2ItYTMyMS00MWQ2LThiNmYtMmJjODY4OTYwZGEyIiwidCI6ImUyMTlhYzJmLTcwYzEtNGEwNS1iNDY1LWM5ZWUzMTY2ZjFjYyIsImMiOjF9</t>
+  </si>
+  <si>
+    <t>Call and Sales Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOThkNWIwZmEtNzE5Ny00YzA1LWFjNmEtNTljZDA3NDk4NzIwIiwidCI6ImRmODY3OWNkLWE4MGUtNDVkOC05OWFjLWM4M2VkN2ZmOTVhMCJ9</t>
+  </si>
+  <si>
+    <t>Monthly Sales</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYmVlNTI0OGYtMjU0Ny00OWJkLTk5MDctYjYwNTQ5ZDc0OTNjIiwidCI6ImUyMTlhYzJmLTcwYzEtNGEwNS1iNDY1LWM5ZWUzMTY2ZjFjYyIsImMiOjF9</t>
+  </si>
+  <si>
+    <t>Sales Regional</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiZGMxY2U5ODctZjY3MC00ZmU0LWJhMDktM2U2YWYyYjgxNzFjIiwidCI6ImNlYjYwMzNmLTdiM2EtNDE2ZS04ODI5LWY3MDgzMzQ3NDYwYSJ9</t>
+  </si>
+  <si>
+    <t>Sales and Inventory Analysis</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiN2EwMDJjYzUtZDVjZC00YmUyLTk4ZDYtOWJlNTVkMjE0NzdhIiwidCI6IjNhOTI1M2YyLWEzYTItNDE0Mi1iYTkzLWU2MGNmZjMwNmJhZSIsImMiOjEwfQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Sales Overview</t>
+  </si>
+  <si>
+    <t>https://community.fabric.microsoft.com/t5/Data-Stories-Gallery/Sales-Overview/td-p/4113467</t>
+  </si>
+  <si>
+    <t>Credit Risk Analytics Dashboard</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiOTE3MmVjMDAtMjk5Ny00OGZlLTk5OGUtZjhiYmQ1ZWE0M2I5IiwidCI6IjlkOWJiNDE4LTAyY2EtNDFiZC05YTRkLTEwOGE5NmIxM2JmZCJ9</t>
+  </si>
+  <si>
+    <t>Credit card customer Finance Domain Analysis</t>
+  </si>
+  <si>
+    <t>Risk analysis in the workspace</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiM2Y0OWI3ZjItMTliOS00NmMzLTg0MDgtNjJjYjRlYmE0ZDY1IiwidCI6ImRmODY3OWNkLWE4MGUtNDVkOC05OWFjLWM4M2VkN2ZmOTVhMCJ9</t>
+  </si>
+  <si>
+    <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYmE3ODI5MjEtZDFhZS00N2NkLWE4NDItZTBhYzFlMjhjMWRiIiwidCI6IjkyNWJkNTViLTA1MjEtNDAwMy1iN2M5LWMzZTY4MzY3ZDcyNCIsImMiOjh9</t>
   </si>
 </sst>
 </file>
@@ -584,7 +944,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +1017,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -671,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,18 +1066,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -701,16 +1078,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -718,30 +1090,81 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1077,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F6EA8A-FFED-44AA-A31C-FDD9C03D0BB1}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1513,7 @@
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="61.140625" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="49" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,1069 +1533,2004 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="35" t="s">
+        <v>288</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="35" t="s">
+        <v>289</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="35" t="s">
+        <v>184</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="35" t="s">
+        <v>242</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="30" t="s">
+        <v>212</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="35" t="s">
+        <v>225</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="35" t="s">
+        <v>240</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="35" t="s">
+        <v>261</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2"/>
+    <row r="15" spans="1:7" s="27" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="35" t="s">
+        <v>242</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>10</v>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>10</v>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>10</v>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F37" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G37" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="38" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F44" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G44" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="C45" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C51" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D51" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F51" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G51" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B52" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B53" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B56" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B57" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B61" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C61" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D61" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F61" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G61" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B62" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B66" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B67" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B68" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C68" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D68" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E68" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F68" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G68" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C69" t="s">
         <v>168</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D69" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="37" t="s">
+      <c r="E69" s="2"/>
+      <c r="F69" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G69" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B70" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B71" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="25"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="E72" s="2"/>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B73" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="52"/>
+      <c r="F75" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="25"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B82" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C82" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D82" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E82" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F82" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G82" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B83" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C83" t="s">
         <v>72</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D83" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F83" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G83" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B84" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C84" t="s">
         <v>74</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D84" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F84" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G84" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B85" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C85" t="s">
         <v>166</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D85" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="4" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G85" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B86" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B87" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B88" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B89" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C93" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D93" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E93" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F93" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G93" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B94" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="C94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B95" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+      <c r="C95" t="s">
+        <v>208</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B96" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
+      <c r="C96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B97" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
+      <c r="E97" s="2"/>
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="B99" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="25"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B103" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C103" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D103" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F103" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G103" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B104" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B105" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="C105" t="s">
+        <v>248</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B106" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="E106" s="2"/>
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B107" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="E107" s="2"/>
+      <c r="F107" s="25"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B108" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="25"/>
+    </row>
+    <row r="109" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B109" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C109" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D109" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E109" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F109" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G109" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B110" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="C110" t="s">
+        <v>177</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B111" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="C111" t="s">
+        <v>194</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B112" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="C112" t="s">
+        <v>243</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B113" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="C113" t="s">
+        <v>254</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B114" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="C114" t="s">
+        <v>258</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B115" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="C115" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B116" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="C116" t="s">
+        <v>274</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" t="s">
+        <v>276</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" t="s">
+        <v>282</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F120" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" t="s">
+        <v>280</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F126" s="56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F127" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F128" s="57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="54"/>
+      <c r="B129" s="54"/>
+      <c r="F129" s="55"/>
+    </row>
+    <row r="130" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="54"/>
+      <c r="B130" s="54"/>
+      <c r="F130" s="55"/>
+    </row>
+    <row r="131" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F131" s="46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>236</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" s="53" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" t="s">
+        <v>271</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="51" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{7C7472DF-F18D-4C8B-9448-0D8D1F0F109C}"/>
-    <hyperlink ref="F15" r:id="rId2" display="https://app.powerbi.com/reportEmbed?reportId=4ce8262e-" xr:uid="{C5878921-3E2D-4B1A-8D52-70F9D0972C8D}"/>
-    <hyperlink ref="F21" r:id="rId3" xr:uid="{B852718E-1B67-48AA-9A50-B50B01F566EB}"/>
-    <hyperlink ref="F34" r:id="rId4" xr:uid="{71CE86CA-299D-4516-AA19-E663A74B84B7}"/>
-    <hyperlink ref="F27" r:id="rId5" xr:uid="{25BE4346-930B-426E-BDBA-F49734864736}"/>
-    <hyperlink ref="F41" r:id="rId6" xr:uid="{380DB2CB-D146-42B4-BE60-23E28833D1D2}"/>
-    <hyperlink ref="F48" r:id="rId7" xr:uid="{27A9060F-9409-4309-9407-7C3625C6F97E}"/>
-    <hyperlink ref="F56" r:id="rId8" xr:uid="{688F46A8-9CBE-438B-BE45-DFAF7BC893DA}"/>
-    <hyperlink ref="F68" r:id="rId9" xr:uid="{01022610-02D6-478A-96F6-8444E21F14FB}"/>
-    <hyperlink ref="F57" r:id="rId10" xr:uid="{D7F3502E-0681-4608-A296-3600F7A8C34E}"/>
+    <hyperlink ref="F20" r:id="rId2" display="https://app.powerbi.com/reportEmbed?reportId=4ce8262e-" xr:uid="{C5878921-3E2D-4B1A-8D52-70F9D0972C8D}"/>
+    <hyperlink ref="F37" r:id="rId3" xr:uid="{B852718E-1B67-48AA-9A50-B50B01F566EB}"/>
+    <hyperlink ref="F51" r:id="rId4" xr:uid="{71CE86CA-299D-4516-AA19-E663A74B84B7}"/>
+    <hyperlink ref="F44" r:id="rId5" xr:uid="{25BE4346-930B-426E-BDBA-F49734864736}"/>
+    <hyperlink ref="F61" r:id="rId6" xr:uid="{380DB2CB-D146-42B4-BE60-23E28833D1D2}"/>
+    <hyperlink ref="F68" r:id="rId7" xr:uid="{27A9060F-9409-4309-9407-7C3625C6F97E}"/>
+    <hyperlink ref="F83" r:id="rId8" xr:uid="{688F46A8-9CBE-438B-BE45-DFAF7BC893DA}"/>
+    <hyperlink ref="F103" r:id="rId9" xr:uid="{01022610-02D6-478A-96F6-8444E21F14FB}"/>
+    <hyperlink ref="F84" r:id="rId10" xr:uid="{D7F3502E-0681-4608-A296-3600F7A8C34E}"/>
     <hyperlink ref="F8" r:id="rId11" xr:uid="{4B54502E-2744-4F89-9C58-77CD41424D57}"/>
-    <hyperlink ref="F74" r:id="rId12" xr:uid="{F430FF02-2F11-4B0B-A6E6-8CB55A42BAB9}"/>
-    <hyperlink ref="F62" r:id="rId13" xr:uid="{03904DCA-4728-4185-B374-8CB9069574DD}"/>
-    <hyperlink ref="F55" r:id="rId14" xr:uid="{EF59B15F-ECC2-4E2D-8ACA-FE4695E24CF7}"/>
-    <hyperlink ref="F58" r:id="rId15" xr:uid="{2748B9CD-7550-4A3D-A01C-0B4D1D5B3D99}"/>
-    <hyperlink ref="F49" r:id="rId16" xr:uid="{AF586387-8C66-472B-AE58-B59AAD66A173}"/>
+    <hyperlink ref="F109" r:id="rId12" xr:uid="{F430FF02-2F11-4B0B-A6E6-8CB55A42BAB9}"/>
+    <hyperlink ref="F93" r:id="rId13" xr:uid="{03904DCA-4728-4185-B374-8CB9069574DD}"/>
+    <hyperlink ref="F82" r:id="rId14" xr:uid="{EF59B15F-ECC2-4E2D-8ACA-FE4695E24CF7}"/>
+    <hyperlink ref="F85" r:id="rId15" xr:uid="{2748B9CD-7550-4A3D-A01C-0B4D1D5B3D99}"/>
+    <hyperlink ref="F69" r:id="rId16" xr:uid="{AF586387-8C66-472B-AE58-B59AAD66A173}"/>
+    <hyperlink ref="F86" r:id="rId17" xr:uid="{5F132BFA-AF4B-463B-9D5B-F47A4E8651DA}"/>
+    <hyperlink ref="F70" r:id="rId18" xr:uid="{95A35707-DA26-46BB-BBC0-7D5E75592533}"/>
+    <hyperlink ref="F110" r:id="rId19" xr:uid="{2BF254C8-F655-47D0-9236-3A896936B557}"/>
+    <hyperlink ref="F15" r:id="rId20" xr:uid="{0682AF3B-73C5-4C3D-B1F1-05502534935D}"/>
+    <hyperlink ref="F131" r:id="rId21" xr:uid="{091FC627-6461-4B3E-8A6A-B11882FAE616}"/>
+    <hyperlink ref="F120" r:id="rId22" xr:uid="{C9C6D36B-9096-4A6A-87A7-8832E83448DF}"/>
+    <hyperlink ref="F33" r:id="rId23" xr:uid="{51348650-52B8-49B0-8135-49917562280A}"/>
+    <hyperlink ref="F99" r:id="rId24" xr:uid="{3FBA1908-9F30-49F6-AAB9-733323A73592}"/>
+    <hyperlink ref="F111" r:id="rId25" xr:uid="{52D08ADD-6684-46E4-8A08-498E41EAC477}"/>
+    <hyperlink ref="F87" r:id="rId26" xr:uid="{549E36E6-51BC-40B8-8090-ACA6A5FDEE8F}"/>
+    <hyperlink ref="F21" r:id="rId27" xr:uid="{92EA5A25-35B8-45B3-B974-A4196F1519F5}"/>
+    <hyperlink ref="F27" r:id="rId28" xr:uid="{C7080737-0E6C-4F27-9086-DF0443B44D37}"/>
+    <hyperlink ref="F94" r:id="rId29" xr:uid="{3B7F8FFF-1EF5-4938-9801-386DC3AACCB3}"/>
+    <hyperlink ref="F34" r:id="rId30" xr:uid="{7037EC8C-C6B4-4161-A7AA-6D4F8794F43D}"/>
+    <hyperlink ref="F91" r:id="rId31" xr:uid="{CF1DEC81-94AC-4B56-B294-89C8E90F4887}"/>
+    <hyperlink ref="F88" r:id="rId32" xr:uid="{9D803584-6842-4C4C-B904-75308176B09F}"/>
+    <hyperlink ref="F95" r:id="rId33" xr:uid="{6B163E31-EB0B-4F56-9D2E-8F82F30E9CAA}"/>
+    <hyperlink ref="F104" r:id="rId34" xr:uid="{B5C26E97-A5D3-4194-891A-8DC504EBEC52}"/>
+    <hyperlink ref="F9" r:id="rId35" xr:uid="{D232DDEF-B1BD-4988-886C-F4926EE3D2C1}"/>
+    <hyperlink ref="F89" r:id="rId36" xr:uid="{936B8898-8F2E-45EB-AA6A-41AAA4C4BC9F}"/>
+    <hyperlink ref="F43" r:id="rId37" xr:uid="{3DF0880A-4CD7-4981-AD8B-2DF607BD1CD7}"/>
+    <hyperlink ref="F35" r:id="rId38" xr:uid="{2B7E8ED7-2808-442F-9715-FAD56A9DE26C}"/>
+    <hyperlink ref="F75" r:id="rId39" xr:uid="{FDDE89BF-2DE1-4096-A662-445361672BFF}"/>
+    <hyperlink ref="F10" r:id="rId40" xr:uid="{6BC674B8-2A4E-4EE0-8B6F-BBA50E611B39}"/>
+    <hyperlink ref="F79" r:id="rId41" xr:uid="{2FCAEE6C-AD7C-4604-B117-CE446D7B1193}"/>
+    <hyperlink ref="F96" r:id="rId42" xr:uid="{CBD71CB2-9B38-4CC7-BD04-721E6FB72AE1}"/>
+    <hyperlink ref="F28" r:id="rId43" xr:uid="{380A19ED-8723-4E67-96A9-984B69B7976E}"/>
+    <hyperlink ref="F126" r:id="rId44" xr:uid="{E0792CE4-F4A9-42AC-A4B3-25BFD65E4302}"/>
+    <hyperlink ref="F132" r:id="rId45" xr:uid="{C9A760EC-A597-43FC-95D5-B2E8F5D2180A}"/>
+    <hyperlink ref="F90" r:id="rId46" xr:uid="{A5D01D57-D55E-4397-8D0E-D271C7826CC1}"/>
+    <hyperlink ref="F11" r:id="rId47" xr:uid="{B2278654-4819-4845-9BCC-68DD3D6A2ADA}"/>
+    <hyperlink ref="F92" r:id="rId48" xr:uid="{1731D949-8A93-4A52-8ED5-D9A3B3FA2A4D}"/>
+    <hyperlink ref="F16" r:id="rId49" xr:uid="{CF2445B9-130B-49F5-9AF0-DC04D807B86A}"/>
+    <hyperlink ref="F112" r:id="rId50" xr:uid="{7433070C-3F3D-4C45-9E41-6CBC3148DDE4}"/>
+    <hyperlink ref="F58" r:id="rId51" xr:uid="{C09E328B-E1AD-450F-A697-81FE257900FB}"/>
+    <hyperlink ref="F105" r:id="rId52" xr:uid="{AA0466AA-0959-4891-A066-1BC1F9788A9B}"/>
+    <hyperlink ref="F29" r:id="rId53" xr:uid="{25C30FF3-1C53-4F65-90F8-A7547CC8A640}"/>
+    <hyperlink ref="F30" r:id="rId54" xr:uid="{C78F48F1-F939-49FD-B97B-4A9E527DC86F}"/>
+    <hyperlink ref="F113" r:id="rId55" xr:uid="{DDB682A2-6DFA-4A88-8FA8-2CF21D7BF366}"/>
+    <hyperlink ref="F127" r:id="rId56" xr:uid="{2A94C082-9BCD-4231-A495-4023BDE7DC5B}"/>
+    <hyperlink ref="F114" r:id="rId57" xr:uid="{441D0044-832D-41DF-A200-49DD22401DBE}"/>
+    <hyperlink ref="F12" r:id="rId58" xr:uid="{DC3100BA-7714-41ED-A9D6-CF55BA9A604B}"/>
+    <hyperlink ref="F45" r:id="rId59" xr:uid="{480D1C77-2E3C-4CBD-9B7F-B14963356F24}"/>
+    <hyperlink ref="F115" r:id="rId60" xr:uid="{CD62A148-DEE1-4701-8CAE-3768633331E4}"/>
+    <hyperlink ref="F138" r:id="rId61" xr:uid="{1F179E22-033D-4B9C-A379-8BECB0636970}"/>
+    <hyperlink ref="F80" r:id="rId62" xr:uid="{C7ADA57F-A052-4B5C-90A0-C7D9C5D423EE}"/>
+    <hyperlink ref="F128" r:id="rId63" xr:uid="{7533901D-6B44-4F1B-BCC8-A3B0D1B7692C}"/>
+    <hyperlink ref="F139" r:id="rId64" xr:uid="{F7301412-90D2-4037-B338-BC96A12D13C9}"/>
+    <hyperlink ref="F116" r:id="rId65" xr:uid="{2DE9D85A-87EB-4345-9943-9B9853FC6E80}"/>
+    <hyperlink ref="F117" r:id="rId66" xr:uid="{6198AC8B-D7F7-41A1-8D1E-03A3734443BB}"/>
+    <hyperlink ref="F119" r:id="rId67" xr:uid="{8317855C-3027-4583-8E85-A347567EBE3D}"/>
+    <hyperlink ref="F121" r:id="rId68" xr:uid="{4F303B27-66BC-401B-BE83-7BEA59AD8720}"/>
+    <hyperlink ref="F118" r:id="rId69" xr:uid="{08E63F57-DF3B-4926-837E-0F1CA1B44560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xceed-digital/manifest.xlsx
+++ b/xceed-digital/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (2)\New folder (3)\xceed\xceed-digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3E6D1-EC49-4966-9A77-C0C312F5EB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7AB6B-E7C5-450E-974B-18B4BB4DF5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CF072F-FCD4-41BE-AD8D-ECCF82EE4C5C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="293">
   <si>
     <t>Department</t>
   </si>
@@ -907,6 +907,15 @@
   </si>
   <si>
     <t>https://app.fabric.microsoft.com/view?r=eyJrIjoiYmE3ODI5MjEtZDFhZS00N2NkLWE4NDItZTBhYzFlMjhjMWRiIiwidCI6IjkyNWJkNTViLTA1MjEtNDAwMy1iN2M5LWMzZTY4MzY3ZDcyNCIsImMiOjh9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/reportEmbed?reportId=9733564b-24a9-40dc-bcf7-113803fbe529&amp;autoAuth=true&amp;ctid=c1e2da04-87a7-4c79-90a9-0a2a54d6db05</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/reportEmbed?reportId=9733564b-24a9-40dc-bcf7-113803fbe529&amp;autoAuth=true&amp;ctid=c1e2da04-87a7-4c79-90a9-0a2a54d6db06</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F6EA8A-FFED-44AA-A31C-FDD9C03D0BB1}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1582,9 @@
       <c r="C3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="35" t="s">
         <v>285</v>
@@ -1590,7 +1601,9 @@
       <c r="C4" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="35" t="s">
         <v>288</v>
@@ -1607,7 +1620,9 @@
       <c r="C5" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="35" t="s">
         <v>289</v>
@@ -1624,7 +1639,9 @@
       <c r="C6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="35" t="s">
         <v>184</v>
@@ -1641,7 +1658,9 @@
       <c r="C7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="35" t="s">
         <v>242</v>
@@ -1681,7 +1700,9 @@
       <c r="C9" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="30" t="s">
+        <v>212</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="35" t="s">
         <v>213</v>
@@ -1698,7 +1719,9 @@
       <c r="C10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="35" t="s">
         <v>225</v>
@@ -1715,7 +1738,9 @@
       <c r="C11" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="35" t="s">
         <v>240</v>
@@ -1732,7 +1757,9 @@
       <c r="C12" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="35" t="s">
         <v>261</v>
@@ -1746,10 +1773,16 @@
       <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>290</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,10 +1792,16 @@
       <c r="B14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>291</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="27" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1792,7 +1831,9 @@
       <c r="C16" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="35" t="s">
         <v>242</v>
@@ -1871,7 +1912,9 @@
       <c r="C21" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="35" t="s">
         <v>199</v>
@@ -1957,7 +2000,9 @@
       <c r="C27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="35" t="s">
         <v>201</v>
@@ -1974,7 +2019,9 @@
       <c r="C28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="35" t="s">
         <v>232</v>
@@ -1991,7 +2038,9 @@
       <c r="C29" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="35" t="s">
         <v>251</v>
@@ -2008,7 +2057,9 @@
       <c r="C30" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="35" t="s">
         <v>253</v>
@@ -2051,7 +2102,9 @@
       <c r="C33" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="36" t="s">
         <v>190</v>
@@ -2068,7 +2121,9 @@
       <c r="C34" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>204</v>
+      </c>
       <c r="E34" s="28"/>
       <c r="F34" s="39" t="s">
         <v>205</v>
@@ -2081,7 +2136,9 @@
       <c r="C35" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="29" t="s">
+        <v>219</v>
+      </c>
       <c r="E35" s="28"/>
       <c r="F35" s="39" t="s">
         <v>220</v>
@@ -2177,6 +2234,9 @@
       <c r="C43" s="31" t="s">
         <v>216</v>
       </c>
+      <c r="D43" s="31" t="s">
+        <v>216</v>
+      </c>
       <c r="E43" s="32"/>
       <c r="F43" s="41" t="s">
         <v>218</v>
@@ -2193,7 +2253,7 @@
         <v>67</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>8</v>
@@ -2215,6 +2275,9 @@
       <c r="C45" s="58" t="s">
         <v>262</v>
       </c>
+      <c r="D45" s="58" t="s">
+        <v>262</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="25" t="s">
         <v>263</v>
@@ -2363,6 +2426,9 @@
       <c r="C58" s="20" t="s">
         <v>246</v>
       </c>
+      <c r="D58" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="E58" s="21"/>
       <c r="F58" s="46" t="s">
         <v>247</v>
@@ -2525,6 +2591,9 @@
       <c r="C70" t="s">
         <v>175</v>
       </c>
+      <c r="D70" t="s">
+        <v>175</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="25" t="s">
         <v>176</v>
@@ -2580,6 +2649,9 @@
       <c r="C75" s="51" t="s">
         <v>222</v>
       </c>
+      <c r="D75" s="51" t="s">
+        <v>222</v>
+      </c>
       <c r="E75" s="52"/>
       <c r="F75" s="53" t="s">
         <v>223</v>
@@ -2595,6 +2667,9 @@
       <c r="C76" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="D76" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="25" t="s">
         <v>270</v>
@@ -2630,6 +2705,9 @@
       <c r="C79" s="5" t="s">
         <v>227</v>
       </c>
+      <c r="D79" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="50" t="s">
         <v>228</v>
@@ -2645,6 +2723,9 @@
       <c r="C80" t="s">
         <v>266</v>
       </c>
+      <c r="D80" t="s">
+        <v>266</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="25" t="s">
         <v>267</v>
@@ -2760,6 +2841,9 @@
       <c r="C86" t="s">
         <v>174</v>
       </c>
+      <c r="D86" t="s">
+        <v>174</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="25" t="s">
         <v>64</v>
@@ -2775,6 +2859,9 @@
       <c r="C87" t="s">
         <v>196</v>
       </c>
+      <c r="D87" t="s">
+        <v>196</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="25" t="s">
         <v>197</v>
@@ -2790,6 +2877,9 @@
       <c r="C88" t="s">
         <v>202</v>
       </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="25" t="s">
         <v>203</v>
@@ -2805,6 +2895,9 @@
       <c r="C89" t="s">
         <v>214</v>
       </c>
+      <c r="D89" t="s">
+        <v>214</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="25" t="s">
         <v>215</v>
@@ -2820,6 +2913,9 @@
       <c r="C90" t="s">
         <v>46</v>
       </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="25" t="s">
         <v>238</v>
@@ -2835,6 +2931,9 @@
       <c r="C91" t="s">
         <v>206</v>
       </c>
+      <c r="D91" t="s">
+        <v>206</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="25" t="s">
         <v>207</v>
@@ -2850,6 +2949,9 @@
       <c r="C92" t="s">
         <v>46</v>
       </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="25" t="s">
         <v>241</v>
@@ -2866,7 +2968,7 @@
         <v>73</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>8</v>
@@ -2888,6 +2990,9 @@
       <c r="C94" t="s">
         <v>202</v>
       </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="25" t="s">
         <v>203</v>
@@ -2903,6 +3008,9 @@
       <c r="C95" t="s">
         <v>208</v>
       </c>
+      <c r="D95" t="s">
+        <v>208</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="25" t="s">
         <v>209</v>
@@ -2916,6 +3024,9 @@
         <v>60</v>
       </c>
       <c r="C96" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" t="s">
         <v>229</v>
       </c>
       <c r="E96" s="2"/>
@@ -2949,6 +3060,9 @@
       <c r="C99" s="20" t="s">
         <v>192</v>
       </c>
+      <c r="D99" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="E99" s="21"/>
       <c r="F99" s="46" t="s">
         <v>193</v>
@@ -3017,6 +3131,9 @@
       <c r="C104" t="s">
         <v>210</v>
       </c>
+      <c r="D104" t="s">
+        <v>210</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="25" t="s">
         <v>211</v>
@@ -3032,6 +3149,9 @@
       <c r="C105" t="s">
         <v>248</v>
       </c>
+      <c r="D105" t="s">
+        <v>248</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="25" t="s">
         <v>249</v>
@@ -3100,6 +3220,9 @@
       <c r="C110" t="s">
         <v>177</v>
       </c>
+      <c r="D110" t="s">
+        <v>177</v>
+      </c>
       <c r="F110" s="25" t="s">
         <v>178</v>
       </c>
@@ -3114,6 +3237,9 @@
       <c r="C111" t="s">
         <v>194</v>
       </c>
+      <c r="D111" t="s">
+        <v>194</v>
+      </c>
       <c r="F111" s="25" t="s">
         <v>195</v>
       </c>
@@ -3128,6 +3254,9 @@
       <c r="C112" t="s">
         <v>243</v>
       </c>
+      <c r="D112" t="s">
+        <v>243</v>
+      </c>
       <c r="F112" s="25" t="s">
         <v>244</v>
       </c>
@@ -3142,6 +3271,9 @@
       <c r="C113" t="s">
         <v>254</v>
       </c>
+      <c r="D113" t="s">
+        <v>254</v>
+      </c>
       <c r="F113" s="25" t="s">
         <v>255</v>
       </c>
@@ -3156,6 +3288,9 @@
       <c r="C114" t="s">
         <v>258</v>
       </c>
+      <c r="D114" t="s">
+        <v>258</v>
+      </c>
       <c r="F114" s="25" t="s">
         <v>259</v>
       </c>
@@ -3170,6 +3305,9 @@
       <c r="C115" t="s">
         <v>264</v>
       </c>
+      <c r="D115" t="s">
+        <v>264</v>
+      </c>
       <c r="F115" s="25" t="s">
         <v>265</v>
       </c>
@@ -3184,6 +3322,9 @@
       <c r="C116" t="s">
         <v>274</v>
       </c>
+      <c r="D116" t="s">
+        <v>274</v>
+      </c>
       <c r="F116" s="25" t="s">
         <v>275</v>
       </c>
@@ -3198,6 +3339,9 @@
       <c r="C117" t="s">
         <v>276</v>
       </c>
+      <c r="D117" t="s">
+        <v>276</v>
+      </c>
       <c r="F117" s="25" t="s">
         <v>277</v>
       </c>
@@ -3212,6 +3356,9 @@
       <c r="C118" t="s">
         <v>282</v>
       </c>
+      <c r="D118" t="s">
+        <v>282</v>
+      </c>
       <c r="F118" s="25" t="s">
         <v>283</v>
       </c>
@@ -3226,6 +3373,9 @@
       <c r="C119" t="s">
         <v>278</v>
       </c>
+      <c r="D119" t="s">
+        <v>278</v>
+      </c>
       <c r="F119" s="25" t="s">
         <v>279</v>
       </c>
@@ -3240,6 +3390,9 @@
       <c r="C120" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="D120" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="F120" s="50" t="s">
         <v>187</v>
       </c>
@@ -3254,6 +3407,9 @@
       <c r="C121" t="s">
         <v>280</v>
       </c>
+      <c r="D121" t="s">
+        <v>280</v>
+      </c>
       <c r="F121" s="25" t="s">
         <v>281</v>
       </c>
@@ -3298,6 +3454,9 @@
       <c r="C126" s="54" t="s">
         <v>233</v>
       </c>
+      <c r="D126" s="54" t="s">
+        <v>233</v>
+      </c>
       <c r="F126" s="56" t="s">
         <v>235</v>
       </c>
@@ -3312,6 +3471,9 @@
       <c r="C127" s="29" t="s">
         <v>256</v>
       </c>
+      <c r="D127" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="F127" s="57" t="s">
         <v>257</v>
       </c>
@@ -3324,6 +3486,9 @@
         <v>234</v>
       </c>
       <c r="C128" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" s="29" t="s">
         <v>268</v>
       </c>
       <c r="F128" s="57" t="s">
@@ -3350,6 +3515,9 @@
       <c r="C131" s="20" t="s">
         <v>172</v>
       </c>
+      <c r="D131" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="F131" s="46" t="s">
         <v>173</v>
       </c>
@@ -3364,6 +3532,9 @@
       <c r="C132" t="s">
         <v>236</v>
       </c>
+      <c r="D132" t="s">
+        <v>236</v>
+      </c>
       <c r="F132" s="25" t="s">
         <v>237</v>
       </c>
@@ -3418,6 +3589,9 @@
       <c r="C138" s="51" t="s">
         <v>264</v>
       </c>
+      <c r="D138" s="51" t="s">
+        <v>264</v>
+      </c>
       <c r="F138" s="53" t="s">
         <v>265</v>
       </c>
@@ -3432,6 +3606,9 @@
       <c r="C139" t="s">
         <v>271</v>
       </c>
+      <c r="D139" t="s">
+        <v>271</v>
+      </c>
       <c r="F139" s="25" t="s">
         <v>273</v>
       </c>
@@ -3461,6 +3638,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{7C7472DF-F18D-4C8B-9448-0D8D1F0F109C}"/>
     <hyperlink ref="F20" r:id="rId2" display="https://app.powerbi.com/reportEmbed?reportId=4ce8262e-" xr:uid="{C5878921-3E2D-4B1A-8D52-70F9D0972C8D}"/>
